--- a/Code/Results/Cases/Case_2_65/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_65/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9928111020628677</v>
+        <v>1.024087700799368</v>
       </c>
       <c r="D2">
-        <v>1.012313798060214</v>
+        <v>1.029272626137886</v>
       </c>
       <c r="E2">
-        <v>1.01305541498073</v>
+        <v>1.049177526682449</v>
       </c>
       <c r="F2">
-        <v>1.018190349293102</v>
+        <v>1.053656323058683</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040561065961095</v>
+        <v>1.031414362012518</v>
       </c>
       <c r="J2">
-        <v>1.015208978696342</v>
+        <v>1.029264277764251</v>
       </c>
       <c r="K2">
-        <v>1.02360420682827</v>
+        <v>1.032087017729598</v>
       </c>
       <c r="L2">
-        <v>1.024335814785513</v>
+        <v>1.051935310672316</v>
       </c>
       <c r="M2">
-        <v>1.029401949520556</v>
+        <v>1.056401689340812</v>
       </c>
       <c r="N2">
-        <v>1.016650691892182</v>
+        <v>1.030725951096939</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9973122260904694</v>
+        <v>1.025030107429419</v>
       </c>
       <c r="D3">
-        <v>1.015543845398283</v>
+        <v>1.029963383108125</v>
       </c>
       <c r="E3">
-        <v>1.017814812932371</v>
+        <v>1.050267894788851</v>
       </c>
       <c r="F3">
-        <v>1.023107144688759</v>
+        <v>1.054772960050087</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041598330640674</v>
+        <v>1.031568386578662</v>
       </c>
       <c r="J3">
-        <v>1.017876431677954</v>
+        <v>1.029845477737807</v>
       </c>
       <c r="K3">
-        <v>1.025981629087853</v>
+        <v>1.032586201499522</v>
       </c>
       <c r="L3">
-        <v>1.028224713334253</v>
+        <v>1.052837153939144</v>
       </c>
       <c r="M3">
-        <v>1.033452661600288</v>
+        <v>1.057330637315593</v>
       </c>
       <c r="N3">
-        <v>1.019321932962995</v>
+        <v>1.031307976441122</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000163448606144</v>
+        <v>1.025640150629473</v>
       </c>
       <c r="D4">
-        <v>1.017591742507225</v>
+        <v>1.030410349522109</v>
       </c>
       <c r="E4">
-        <v>1.020837494704366</v>
+        <v>1.050974438251363</v>
       </c>
       <c r="F4">
-        <v>1.026227956427225</v>
+        <v>1.055496334277439</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042244565161079</v>
+        <v>1.031666725142655</v>
       </c>
       <c r="J4">
-        <v>1.019562974275607</v>
+        <v>1.030221202080189</v>
       </c>
       <c r="K4">
-        <v>1.027482387595928</v>
+        <v>1.032908532547807</v>
       </c>
       <c r="L4">
-        <v>1.030690769756273</v>
+        <v>1.053421114769386</v>
       </c>
       <c r="M4">
-        <v>1.036019812177668</v>
+        <v>1.057931974398212</v>
       </c>
       <c r="N4">
-        <v>1.021010870644587</v>
+        <v>1.031684234355166</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001347954872417</v>
+        <v>1.025896670329306</v>
       </c>
       <c r="D5">
-        <v>1.018442897056084</v>
+        <v>1.030598253111887</v>
       </c>
       <c r="E5">
-        <v>1.022095120981395</v>
+        <v>1.051271708730625</v>
       </c>
       <c r="F5">
-        <v>1.027525970080653</v>
+        <v>1.05580064039514</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042510398082941</v>
+        <v>1.031707748877826</v>
       </c>
       <c r="J5">
-        <v>1.02026284068147</v>
+        <v>1.030379071869416</v>
       </c>
       <c r="K5">
-        <v>1.028104563075381</v>
+        <v>1.033043878277561</v>
       </c>
       <c r="L5">
-        <v>1.031715891415379</v>
+        <v>1.053666709213174</v>
       </c>
       <c r="M5">
-        <v>1.03708658949417</v>
+        <v>1.058184834879116</v>
       </c>
       <c r="N5">
-        <v>1.021711730941022</v>
+        <v>1.031842328337602</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001546023933004</v>
+        <v>1.025939744470666</v>
       </c>
       <c r="D6">
-        <v>1.01858524483752</v>
+        <v>1.030629802852484</v>
       </c>
       <c r="E6">
-        <v>1.022305528118961</v>
+        <v>1.051321635792349</v>
       </c>
       <c r="F6">
-        <v>1.027743108280625</v>
+        <v>1.05585174642372</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042554693490966</v>
+        <v>1.031714618294958</v>
       </c>
       <c r="J6">
-        <v>1.020379822706544</v>
+        <v>1.030405573912575</v>
       </c>
       <c r="K6">
-        <v>1.028208523567509</v>
+        <v>1.033066593882967</v>
       </c>
       <c r="L6">
-        <v>1.031887345461125</v>
+        <v>1.05370795129727</v>
       </c>
       <c r="M6">
-        <v>1.037264988755806</v>
+        <v>1.058227294676977</v>
       </c>
       <c r="N6">
-        <v>1.021828879093989</v>
+        <v>1.031868868016703</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000179330946777</v>
+        <v>1.025643578032987</v>
       </c>
       <c r="D7">
-        <v>1.017603153708147</v>
+        <v>1.030412860304872</v>
       </c>
       <c r="E7">
-        <v>1.020854349997357</v>
+        <v>1.050978409453009</v>
       </c>
       <c r="F7">
-        <v>1.026245354752941</v>
+        <v>1.055500399646918</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042248140031985</v>
+        <v>1.031667274553084</v>
       </c>
       <c r="J7">
-        <v>1.019572361522045</v>
+        <v>1.030223311877847</v>
       </c>
       <c r="K7">
-        <v>1.027490735160312</v>
+        <v>1.032910341682622</v>
       </c>
       <c r="L7">
-        <v>1.030704512530815</v>
+        <v>1.053424396032427</v>
       </c>
       <c r="M7">
-        <v>1.036034114849098</v>
+        <v>1.057935352903508</v>
       </c>
       <c r="N7">
-        <v>1.02102027122199</v>
+        <v>1.031686347148979</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9943452991573816</v>
+        <v>1.024406140801631</v>
       </c>
       <c r="D8">
-        <v>1.013414329785207</v>
+        <v>1.029506069872074</v>
       </c>
       <c r="E8">
-        <v>1.014675998323249</v>
+        <v>1.049545813916905</v>
       </c>
       <c r="F8">
-        <v>1.019864909873895</v>
+        <v>1.054033522529312</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040916858642383</v>
+        <v>1.031466689552298</v>
       </c>
       <c r="J8">
-        <v>1.016118813596888</v>
+        <v>1.029460769242456</v>
       </c>
       <c r="K8">
-        <v>1.024415610257513</v>
+        <v>1.032255858326476</v>
       </c>
       <c r="L8">
-        <v>1.02566077680259</v>
+        <v>1.052240008150659</v>
       </c>
       <c r="M8">
-        <v>1.030782356995804</v>
+        <v>1.056715580538799</v>
       </c>
       <c r="N8">
-        <v>1.017561818862653</v>
+        <v>1.030922721615581</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9835702160425289</v>
+        <v>1.022227508991065</v>
       </c>
       <c r="D9">
-        <v>1.005695359391545</v>
+        <v>1.027908245709976</v>
       </c>
       <c r="E9">
-        <v>1.003327446700178</v>
+        <v>1.047029090631508</v>
       </c>
       <c r="F9">
-        <v>1.008130659748227</v>
+        <v>1.051455113950199</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038373809567093</v>
+        <v>1.031103099734808</v>
       </c>
       <c r="J9">
-        <v>1.00971679746477</v>
+        <v>1.028114415689477</v>
       </c>
       <c r="K9">
-        <v>1.0186967042805</v>
+        <v>1.031097447762105</v>
       </c>
       <c r="L9">
-        <v>1.016366768105642</v>
+        <v>1.050156104924829</v>
       </c>
       <c r="M9">
-        <v>1.021093185771444</v>
+        <v>1.054568085917175</v>
       </c>
       <c r="N9">
-        <v>1.011150711133305</v>
+        <v>1.029574456086128</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9760164399598479</v>
+        <v>1.020776396038064</v>
       </c>
       <c r="D10">
-        <v>1.000300204455982</v>
+        <v>1.026843137884787</v>
       </c>
       <c r="E10">
-        <v>0.9954138243990892</v>
+        <v>1.045356466884498</v>
       </c>
       <c r="F10">
-        <v>0.9999383326306529</v>
+        <v>1.049740510781022</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036536736319354</v>
+        <v>1.030853918959771</v>
       </c>
       <c r="J10">
-        <v>1.005215026896872</v>
+        <v>1.027215102252489</v>
       </c>
       <c r="K10">
-        <v>1.014664040733313</v>
+        <v>1.030321775072134</v>
       </c>
       <c r="L10">
-        <v>1.009866380335521</v>
+        <v>1.048768965641038</v>
       </c>
       <c r="M10">
-        <v>1.01430870059016</v>
+        <v>1.053137723925747</v>
       </c>
       <c r="N10">
-        <v>1.006642547534841</v>
+        <v>1.028673865520906</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9726485279378553</v>
+        <v>1.020148365604456</v>
       </c>
       <c r="D11">
-        <v>0.9978995792883463</v>
+        <v>1.026381974648319</v>
       </c>
       <c r="E11">
-        <v>0.9918954599003235</v>
+        <v>1.044633437124123</v>
       </c>
       <c r="F11">
-        <v>0.9962937566775529</v>
+        <v>1.048999100962146</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035705421599135</v>
+        <v>1.030744416235559</v>
       </c>
       <c r="J11">
-        <v>1.003205151628859</v>
+        <v>1.026825284202858</v>
       </c>
       <c r="K11">
-        <v>1.012861215471814</v>
+        <v>1.029985103915315</v>
       </c>
       <c r="L11">
-        <v>1.006971851707314</v>
+        <v>1.048168827420961</v>
       </c>
       <c r="M11">
-        <v>1.011285907423806</v>
+        <v>1.052518674306459</v>
       </c>
       <c r="N11">
-        <v>1.004629818013411</v>
+        <v>1.028283493884933</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9713820999923847</v>
+        <v>1.019915134373113</v>
       </c>
       <c r="D12">
-        <v>0.9969976971976877</v>
+        <v>1.02621068455344</v>
       </c>
       <c r="E12">
-        <v>0.9905739571470384</v>
+        <v>1.044365056263345</v>
       </c>
       <c r="F12">
-        <v>0.9949245041076291</v>
+        <v>1.048723862511606</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035391041700216</v>
+        <v>1.030703501178726</v>
       </c>
       <c r="J12">
-        <v>1.00244902035291</v>
+        <v>1.02668042753745</v>
       </c>
       <c r="K12">
-        <v>1.012182643520112</v>
+        <v>1.029859929851905</v>
       </c>
       <c r="L12">
-        <v>1.005884001124729</v>
+        <v>1.047945985009612</v>
       </c>
       <c r="M12">
-        <v>1.010149592918895</v>
+        <v>1.052288778037203</v>
       </c>
       <c r="N12">
-        <v>1.003872612944321</v>
+        <v>1.028138431506444</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9716544659361618</v>
+        <v>1.019965161118381</v>
       </c>
       <c r="D13">
-        <v>0.9971916231010114</v>
+        <v>1.026247426549543</v>
       </c>
       <c r="E13">
-        <v>0.9908581000967784</v>
+        <v>1.044422616513078</v>
       </c>
       <c r="F13">
-        <v>0.9952189295405682</v>
+        <v>1.048782895113531</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035458733817549</v>
+        <v>1.030712288490975</v>
       </c>
       <c r="J13">
-        <v>1.002611654303595</v>
+        <v>1.026711502529098</v>
       </c>
       <c r="K13">
-        <v>1.012328610187394</v>
+        <v>1.029886785504738</v>
       </c>
       <c r="L13">
-        <v>1.006117935034516</v>
+        <v>1.047993782037144</v>
       </c>
       <c r="M13">
-        <v>1.010393960189864</v>
+        <v>1.05233808946686</v>
       </c>
       <c r="N13">
-        <v>1.00403547785387</v>
+        <v>1.028169550628144</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9725441646329347</v>
+        <v>1.020129085671621</v>
       </c>
       <c r="D14">
-        <v>0.9978252401484579</v>
+        <v>1.026367815617221</v>
       </c>
       <c r="E14">
-        <v>0.9917865275450753</v>
+        <v>1.044611248911859</v>
       </c>
       <c r="F14">
-        <v>0.9961808952728788</v>
+        <v>1.048976346519685</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035679550194355</v>
+        <v>1.030741039095636</v>
       </c>
       <c r="J14">
-        <v>1.003142847748243</v>
+        <v>1.026813311544146</v>
       </c>
       <c r="K14">
-        <v>1.012805308996868</v>
+        <v>1.029974759419686</v>
       </c>
       <c r="L14">
-        <v>1.006882192832025</v>
+        <v>1.048150405653485</v>
       </c>
       <c r="M14">
-        <v>1.011192259443791</v>
+        <v>1.052499670062608</v>
       </c>
       <c r="N14">
-        <v>1.004567425654138</v>
+        <v>1.028271504223672</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9730902654899639</v>
+        <v>1.02023009127323</v>
       </c>
       <c r="D15">
-        <v>0.9982142677860428</v>
+        <v>1.026441992185632</v>
       </c>
       <c r="E15">
-        <v>0.9923565979276047</v>
+        <v>1.044727496023454</v>
       </c>
       <c r="F15">
-        <v>0.9967715133143659</v>
+        <v>1.049095558751167</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035814854942135</v>
+        <v>1.030758721386032</v>
       </c>
       <c r="J15">
-        <v>1.003468850166271</v>
+        <v>1.026876031389186</v>
       </c>
       <c r="K15">
-        <v>1.013097823776375</v>
+        <v>1.030028947252227</v>
       </c>
       <c r="L15">
-        <v>1.00735137335687</v>
+        <v>1.048246916662131</v>
       </c>
       <c r="M15">
-        <v>1.011682304269666</v>
+        <v>1.052599231346685</v>
       </c>
       <c r="N15">
-        <v>1.004893891032993</v>
+        <v>1.028334313138085</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9762378407053842</v>
+        <v>1.02081808294591</v>
       </c>
       <c r="D16">
-        <v>1.000458125952284</v>
+        <v>1.026873744614369</v>
       </c>
       <c r="E16">
-        <v>0.9956453235157592</v>
+        <v>1.045404477863449</v>
       </c>
       <c r="F16">
-        <v>1.000178088258065</v>
+        <v>1.049789737316382</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036591135336156</v>
+        <v>1.030861152495288</v>
       </c>
       <c r="J16">
-        <v>1.00534709979786</v>
+        <v>1.027240964620184</v>
       </c>
       <c r="K16">
-        <v>1.014782460278487</v>
+        <v>1.030344102041946</v>
       </c>
       <c r="L16">
-        <v>1.010056740245603</v>
+        <v>1.048808805435852</v>
       </c>
       <c r="M16">
-        <v>1.014507459718188</v>
+        <v>1.053178814691607</v>
       </c>
       <c r="N16">
-        <v>1.006774807994497</v>
+        <v>1.02869976461613</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9781856602051551</v>
+        <v>1.021186998218952</v>
       </c>
       <c r="D17">
-        <v>1.001848035553614</v>
+        <v>1.027144581806666</v>
       </c>
       <c r="E17">
-        <v>0.9976831215117981</v>
+        <v>1.045829459416401</v>
       </c>
       <c r="F17">
-        <v>1.002288303221346</v>
+        <v>1.050225451678725</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037068336362237</v>
+        <v>1.030924975175735</v>
       </c>
       <c r="J17">
-        <v>1.006508734410378</v>
+        <v>1.027469768426606</v>
       </c>
       <c r="K17">
-        <v>1.015823739416396</v>
+        <v>1.030541576725592</v>
       </c>
       <c r="L17">
-        <v>1.011731896318375</v>
+        <v>1.049161398015096</v>
       </c>
       <c r="M17">
-        <v>1.016256328803331</v>
+        <v>1.05354245427255</v>
       </c>
       <c r="N17">
-        <v>1.007938092261407</v>
+        <v>1.028928893350201</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9793124845486443</v>
+        <v>1.021402210234192</v>
       </c>
       <c r="D18">
-        <v>1.002652559411697</v>
+        <v>1.02730255990619</v>
       </c>
       <c r="E18">
-        <v>0.9988629459448317</v>
+        <v>1.046077462375623</v>
       </c>
       <c r="F18">
-        <v>1.003509836386691</v>
+        <v>1.05047969534495</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037343235389236</v>
+        <v>1.03096204690279</v>
       </c>
       <c r="J18">
-        <v>1.007180484960115</v>
+        <v>1.027603186273249</v>
       </c>
       <c r="K18">
-        <v>1.016425662771494</v>
+        <v>1.030656683151734</v>
       </c>
       <c r="L18">
-        <v>1.012701335329595</v>
+        <v>1.049367107747494</v>
       </c>
       <c r="M18">
-        <v>1.017268259265641</v>
+        <v>1.053754588648554</v>
       </c>
       <c r="N18">
-        <v>1.008610796773974</v>
+        <v>1.02906250066549</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9796951489093138</v>
+        <v>1.021475597039349</v>
       </c>
       <c r="D19">
-        <v>1.002925846297434</v>
+        <v>1.027356426888859</v>
       </c>
       <c r="E19">
-        <v>0.9992637695716613</v>
+        <v>1.046162045054406</v>
       </c>
       <c r="F19">
-        <v>1.003924792687312</v>
+        <v>1.050566402624933</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037436390673701</v>
+        <v>1.030974661107656</v>
       </c>
       <c r="J19">
-        <v>1.007408562642474</v>
+        <v>1.027648671585095</v>
       </c>
       <c r="K19">
-        <v>1.016629992828416</v>
+        <v>1.030695918348463</v>
       </c>
       <c r="L19">
-        <v>1.013030611686524</v>
+        <v>1.049437257661906</v>
       </c>
       <c r="M19">
-        <v>1.017611939545035</v>
+        <v>1.053826925994752</v>
       </c>
       <c r="N19">
-        <v>1.008839198352804</v>
+        <v>1.029108050571697</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9779776460974241</v>
+        <v>1.021147413997063</v>
       </c>
       <c r="D20">
-        <v>1.001699554809241</v>
+        <v>1.027115523184638</v>
       </c>
       <c r="E20">
-        <v>0.9974654000436641</v>
+        <v>1.04578385066866</v>
       </c>
       <c r="F20">
-        <v>1.002062867275096</v>
+        <v>1.050178693424949</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03701749490879</v>
+        <v>1.030918143631855</v>
       </c>
       <c r="J20">
-        <v>1.006384706403472</v>
+        <v>1.027445224029091</v>
       </c>
       <c r="K20">
-        <v>1.0157125852815</v>
+        <v>1.030520397542258</v>
       </c>
       <c r="L20">
-        <v>1.011552964232106</v>
+        <v>1.04912356315578</v>
       </c>
       <c r="M20">
-        <v>1.016069540375466</v>
+        <v>1.053503436127367</v>
       </c>
       <c r="N20">
-        <v>1.007813888120505</v>
+        <v>1.028904314096827</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.972282603789893</v>
+        <v>1.020080812668439</v>
       </c>
       <c r="D21">
-        <v>0.9976389409712053</v>
+        <v>1.026332363849865</v>
       </c>
       <c r="E21">
-        <v>0.9915135396541324</v>
+        <v>1.044555696274965</v>
       </c>
       <c r="F21">
-        <v>0.9958980555125356</v>
+        <v>1.048919375644629</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035614681393947</v>
+        <v>1.030732579405237</v>
       </c>
       <c r="J21">
-        <v>1.002986692783734</v>
+        <v>1.026783333002467</v>
       </c>
       <c r="K21">
-        <v>1.012665182828869</v>
+        <v>1.029948856584582</v>
       </c>
       <c r="L21">
-        <v>1.006657494270205</v>
+        <v>1.048104281812511</v>
       </c>
       <c r="M21">
-        <v>1.010957559449568</v>
+        <v>1.052452087323568</v>
       </c>
       <c r="N21">
-        <v>1.004411048931669</v>
+        <v>1.028241483109025</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9686121307567929</v>
+        <v>1.019410471616924</v>
       </c>
       <c r="D22">
-        <v>0.9950266847706927</v>
+        <v>1.025839998453262</v>
       </c>
       <c r="E22">
-        <v>0.987686283633632</v>
+        <v>1.04378457491221</v>
       </c>
       <c r="F22">
-        <v>0.9919318579598814</v>
+        <v>1.048128484653765</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034700206119372</v>
+        <v>1.030614514405505</v>
       </c>
       <c r="J22">
-        <v>1.000794573659276</v>
+        <v>1.026366823889295</v>
       </c>
       <c r="K22">
-        <v>1.010697312034659</v>
+        <v>1.029588815627544</v>
       </c>
       <c r="L22">
-        <v>1.003505689083289</v>
+        <v>1.047463856930914</v>
       </c>
       <c r="M22">
-        <v>1.007664858789787</v>
+        <v>1.051791330745493</v>
       </c>
       <c r="N22">
-        <v>1.002215816746614</v>
+        <v>1.027824382505138</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.970566728604195</v>
+        <v>1.019765805994713</v>
       </c>
       <c r="D23">
-        <v>0.996417276024092</v>
+        <v>1.026101006689712</v>
       </c>
       <c r="E23">
-        <v>0.9897235490645937</v>
+        <v>1.04419325963366</v>
       </c>
       <c r="F23">
-        <v>0.9940432712810786</v>
+        <v>1.048547666297523</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035188137660617</v>
+        <v>1.030677234845871</v>
       </c>
       <c r="J23">
-        <v>1.001962099946893</v>
+        <v>1.026587656404216</v>
       </c>
       <c r="K23">
-        <v>1.011745577273601</v>
+        <v>1.029779745349684</v>
       </c>
       <c r="L23">
-        <v>1.005183767120785</v>
+        <v>1.047803316719697</v>
       </c>
       <c r="M23">
-        <v>1.009418091392251</v>
+        <v>1.052141584802844</v>
       </c>
       <c r="N23">
-        <v>1.003385001055477</v>
+        <v>1.02804552862756</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9780716674143503</v>
+        <v>1.021165300310393</v>
       </c>
       <c r="D24">
-        <v>1.001766665949855</v>
+        <v>1.027128653514869</v>
       </c>
       <c r="E24">
-        <v>0.9975638061011979</v>
+        <v>1.045804458932601</v>
       </c>
       <c r="F24">
-        <v>1.002164760810908</v>
+        <v>1.050199821161618</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037040478601807</v>
+        <v>1.030921230991302</v>
       </c>
       <c r="J24">
-        <v>1.006440767245117</v>
+        <v>1.027456314708025</v>
       </c>
       <c r="K24">
-        <v>1.015762827822977</v>
+        <v>1.030529967742185</v>
       </c>
       <c r="L24">
-        <v>1.011633839533019</v>
+        <v>1.049140658950349</v>
       </c>
       <c r="M24">
-        <v>1.016153967174438</v>
+        <v>1.053521066656242</v>
       </c>
       <c r="N24">
-        <v>1.007870028574975</v>
+        <v>1.028915420525797</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9864181924591173</v>
+        <v>1.022790509669308</v>
       </c>
       <c r="D25">
-        <v>1.0077331075238</v>
+        <v>1.028321307609226</v>
       </c>
       <c r="E25">
-        <v>1.006319728378895</v>
+        <v>1.047678810277403</v>
       </c>
       <c r="F25">
-        <v>1.011226325262221</v>
+        <v>1.05212093176579</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039055516347704</v>
+        <v>1.031198294646969</v>
       </c>
       <c r="J25">
-        <v>1.011411446121089</v>
+        <v>1.028462790844085</v>
       </c>
       <c r="K25">
-        <v>1.020212551443411</v>
+        <v>1.031397527286407</v>
       </c>
       <c r="L25">
-        <v>1.018820724513036</v>
+        <v>1.050694469898671</v>
       </c>
       <c r="M25">
-        <v>1.023652831276262</v>
+        <v>1.055123037166346</v>
       </c>
       <c r="N25">
-        <v>1.012847766385096</v>
+        <v>1.029923325973415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_65/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_65/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024087700799368</v>
+        <v>0.9928111020628675</v>
       </c>
       <c r="D2">
-        <v>1.029272626137886</v>
+        <v>1.012313798060214</v>
       </c>
       <c r="E2">
-        <v>1.049177526682449</v>
+        <v>1.013055414980731</v>
       </c>
       <c r="F2">
-        <v>1.053656323058683</v>
+        <v>1.018190349293102</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031414362012518</v>
+        <v>1.040561065961095</v>
       </c>
       <c r="J2">
-        <v>1.029264277764251</v>
+        <v>1.015208978696342</v>
       </c>
       <c r="K2">
-        <v>1.032087017729598</v>
+        <v>1.02360420682827</v>
       </c>
       <c r="L2">
-        <v>1.051935310672316</v>
+        <v>1.024335814785513</v>
       </c>
       <c r="M2">
-        <v>1.056401689340812</v>
+        <v>1.029401949520556</v>
       </c>
       <c r="N2">
-        <v>1.030725951096939</v>
+        <v>1.016650691892182</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025030107429419</v>
+        <v>0.9973122260904694</v>
       </c>
       <c r="D3">
-        <v>1.029963383108125</v>
+        <v>1.015543845398283</v>
       </c>
       <c r="E3">
-        <v>1.050267894788851</v>
+        <v>1.017814812932372</v>
       </c>
       <c r="F3">
-        <v>1.054772960050087</v>
+        <v>1.023107144688759</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031568386578662</v>
+        <v>1.041598330640674</v>
       </c>
       <c r="J3">
-        <v>1.029845477737807</v>
+        <v>1.017876431677954</v>
       </c>
       <c r="K3">
-        <v>1.032586201499522</v>
+        <v>1.025981629087853</v>
       </c>
       <c r="L3">
-        <v>1.052837153939144</v>
+        <v>1.028224713334253</v>
       </c>
       <c r="M3">
-        <v>1.057330637315593</v>
+        <v>1.033452661600288</v>
       </c>
       <c r="N3">
-        <v>1.031307976441122</v>
+        <v>1.019321932962995</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025640150629473</v>
+        <v>1.000163448606143</v>
       </c>
       <c r="D4">
-        <v>1.030410349522109</v>
+        <v>1.017591742507224</v>
       </c>
       <c r="E4">
-        <v>1.050974438251363</v>
+        <v>1.020837494704365</v>
       </c>
       <c r="F4">
-        <v>1.055496334277439</v>
+        <v>1.026227956427225</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031666725142655</v>
+        <v>1.042244565161079</v>
       </c>
       <c r="J4">
-        <v>1.030221202080189</v>
+        <v>1.019562974275607</v>
       </c>
       <c r="K4">
-        <v>1.032908532547807</v>
+        <v>1.027482387595927</v>
       </c>
       <c r="L4">
-        <v>1.053421114769386</v>
+        <v>1.030690769756273</v>
       </c>
       <c r="M4">
-        <v>1.057931974398212</v>
+        <v>1.036019812177668</v>
       </c>
       <c r="N4">
-        <v>1.031684234355166</v>
+        <v>1.021010870644586</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025896670329306</v>
+        <v>1.001347954872417</v>
       </c>
       <c r="D5">
-        <v>1.030598253111887</v>
+        <v>1.018442897056084</v>
       </c>
       <c r="E5">
-        <v>1.051271708730625</v>
+        <v>1.022095120981395</v>
       </c>
       <c r="F5">
-        <v>1.05580064039514</v>
+        <v>1.027525970080654</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031707748877826</v>
+        <v>1.042510398082941</v>
       </c>
       <c r="J5">
-        <v>1.030379071869416</v>
+        <v>1.020262840681471</v>
       </c>
       <c r="K5">
-        <v>1.033043878277561</v>
+        <v>1.028104563075381</v>
       </c>
       <c r="L5">
-        <v>1.053666709213174</v>
+        <v>1.031715891415379</v>
       </c>
       <c r="M5">
-        <v>1.058184834879116</v>
+        <v>1.037086589494171</v>
       </c>
       <c r="N5">
-        <v>1.031842328337602</v>
+        <v>1.021711730941022</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025939744470666</v>
+        <v>1.001546023933005</v>
       </c>
       <c r="D6">
-        <v>1.030629802852484</v>
+        <v>1.018585244837521</v>
       </c>
       <c r="E6">
-        <v>1.051321635792349</v>
+        <v>1.022305528118961</v>
       </c>
       <c r="F6">
-        <v>1.05585174642372</v>
+        <v>1.027743108280625</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031714618294958</v>
+        <v>1.042554693490967</v>
       </c>
       <c r="J6">
-        <v>1.030405573912575</v>
+        <v>1.020379822706545</v>
       </c>
       <c r="K6">
-        <v>1.033066593882967</v>
+        <v>1.02820852356751</v>
       </c>
       <c r="L6">
-        <v>1.05370795129727</v>
+        <v>1.031887345461126</v>
       </c>
       <c r="M6">
-        <v>1.058227294676977</v>
+        <v>1.037264988755806</v>
       </c>
       <c r="N6">
-        <v>1.031868868016703</v>
+        <v>1.02182887909399</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025643578032987</v>
+        <v>1.000179330946778</v>
       </c>
       <c r="D7">
-        <v>1.030412860304872</v>
+        <v>1.017603153708147</v>
       </c>
       <c r="E7">
-        <v>1.050978409453009</v>
+        <v>1.020854349997357</v>
       </c>
       <c r="F7">
-        <v>1.055500399646918</v>
+        <v>1.026245354752942</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031667274553084</v>
+        <v>1.042248140031985</v>
       </c>
       <c r="J7">
-        <v>1.030223311877847</v>
+        <v>1.019572361522045</v>
       </c>
       <c r="K7">
-        <v>1.032910341682622</v>
+        <v>1.027490735160313</v>
       </c>
       <c r="L7">
-        <v>1.053424396032427</v>
+        <v>1.030704512530816</v>
       </c>
       <c r="M7">
-        <v>1.057935352903508</v>
+        <v>1.036034114849099</v>
       </c>
       <c r="N7">
-        <v>1.031686347148979</v>
+        <v>1.021020271221991</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024406140801631</v>
+        <v>0.9943452991573826</v>
       </c>
       <c r="D8">
-        <v>1.029506069872074</v>
+        <v>1.013414329785208</v>
       </c>
       <c r="E8">
-        <v>1.049545813916905</v>
+        <v>1.014675998323249</v>
       </c>
       <c r="F8">
-        <v>1.054033522529312</v>
+        <v>1.019864909873895</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031466689552298</v>
+        <v>1.040916858642384</v>
       </c>
       <c r="J8">
-        <v>1.029460769242456</v>
+        <v>1.016118813596889</v>
       </c>
       <c r="K8">
-        <v>1.032255858326476</v>
+        <v>1.024415610257514</v>
       </c>
       <c r="L8">
-        <v>1.052240008150659</v>
+        <v>1.02566077680259</v>
       </c>
       <c r="M8">
-        <v>1.056715580538799</v>
+        <v>1.030782356995804</v>
       </c>
       <c r="N8">
-        <v>1.030922721615581</v>
+        <v>1.017561818862654</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022227508991065</v>
+        <v>0.9835702160425286</v>
       </c>
       <c r="D9">
-        <v>1.027908245709976</v>
+        <v>1.005695359391544</v>
       </c>
       <c r="E9">
-        <v>1.047029090631508</v>
+        <v>1.003327446700178</v>
       </c>
       <c r="F9">
-        <v>1.051455113950199</v>
+        <v>1.008130659748226</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031103099734808</v>
+        <v>1.038373809567093</v>
       </c>
       <c r="J9">
-        <v>1.028114415689477</v>
+        <v>1.009716797464769</v>
       </c>
       <c r="K9">
-        <v>1.031097447762105</v>
+        <v>1.0186967042805</v>
       </c>
       <c r="L9">
-        <v>1.050156104924829</v>
+        <v>1.016366768105642</v>
       </c>
       <c r="M9">
-        <v>1.054568085917175</v>
+        <v>1.021093185771444</v>
       </c>
       <c r="N9">
-        <v>1.029574456086128</v>
+        <v>1.011150711133305</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020776396038064</v>
+        <v>0.9760164399598485</v>
       </c>
       <c r="D10">
-        <v>1.026843137884787</v>
+        <v>1.000300204455982</v>
       </c>
       <c r="E10">
-        <v>1.045356466884498</v>
+        <v>0.9954138243990898</v>
       </c>
       <c r="F10">
-        <v>1.049740510781022</v>
+        <v>0.9999383326306535</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030853918959771</v>
+        <v>1.036536736319354</v>
       </c>
       <c r="J10">
-        <v>1.027215102252489</v>
+        <v>1.005215026896872</v>
       </c>
       <c r="K10">
-        <v>1.030321775072134</v>
+        <v>1.014664040733313</v>
       </c>
       <c r="L10">
-        <v>1.048768965641038</v>
+        <v>1.009866380335522</v>
       </c>
       <c r="M10">
-        <v>1.053137723925747</v>
+        <v>1.014308700590161</v>
       </c>
       <c r="N10">
-        <v>1.028673865520906</v>
+        <v>1.006642547534841</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020148365604456</v>
+        <v>0.9726485279378559</v>
       </c>
       <c r="D11">
-        <v>1.026381974648319</v>
+        <v>0.9978995792883469</v>
       </c>
       <c r="E11">
-        <v>1.044633437124123</v>
+        <v>0.9918954599003237</v>
       </c>
       <c r="F11">
-        <v>1.048999100962146</v>
+        <v>0.9962937566775535</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030744416235559</v>
+        <v>1.035705421599135</v>
       </c>
       <c r="J11">
-        <v>1.026825284202858</v>
+        <v>1.00320515162886</v>
       </c>
       <c r="K11">
-        <v>1.029985103915315</v>
+        <v>1.012861215471815</v>
       </c>
       <c r="L11">
-        <v>1.048168827420961</v>
+        <v>1.006971851707314</v>
       </c>
       <c r="M11">
-        <v>1.052518674306459</v>
+        <v>1.011285907423806</v>
       </c>
       <c r="N11">
-        <v>1.028283493884933</v>
+        <v>1.004629818013412</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019915134373113</v>
+        <v>0.9713820999923853</v>
       </c>
       <c r="D12">
-        <v>1.02621068455344</v>
+        <v>0.996997697197688</v>
       </c>
       <c r="E12">
-        <v>1.044365056263345</v>
+        <v>0.990573957147039</v>
       </c>
       <c r="F12">
-        <v>1.048723862511606</v>
+        <v>0.9949245041076298</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030703501178726</v>
+        <v>1.035391041700216</v>
       </c>
       <c r="J12">
-        <v>1.02668042753745</v>
+        <v>1.002449020352911</v>
       </c>
       <c r="K12">
-        <v>1.029859929851905</v>
+        <v>1.012182643520112</v>
       </c>
       <c r="L12">
-        <v>1.047945985009612</v>
+        <v>1.00588400112473</v>
       </c>
       <c r="M12">
-        <v>1.052288778037203</v>
+        <v>1.010149592918896</v>
       </c>
       <c r="N12">
-        <v>1.028138431506444</v>
+        <v>1.003872612944322</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019965161118381</v>
+        <v>0.9716544659361627</v>
       </c>
       <c r="D13">
-        <v>1.026247426549543</v>
+        <v>0.9971916231010122</v>
       </c>
       <c r="E13">
-        <v>1.044422616513078</v>
+        <v>0.9908581000967793</v>
       </c>
       <c r="F13">
-        <v>1.048782895113531</v>
+        <v>0.9952189295405693</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030712288490975</v>
+        <v>1.03545873381755</v>
       </c>
       <c r="J13">
-        <v>1.026711502529098</v>
+        <v>1.002611654303596</v>
       </c>
       <c r="K13">
-        <v>1.029886785504738</v>
+        <v>1.012328610187395</v>
       </c>
       <c r="L13">
-        <v>1.047993782037144</v>
+        <v>1.006117935034517</v>
       </c>
       <c r="M13">
-        <v>1.05233808946686</v>
+        <v>1.010393960189865</v>
       </c>
       <c r="N13">
-        <v>1.028169550628144</v>
+        <v>1.004035477853871</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020129085671621</v>
+        <v>0.972544164632935</v>
       </c>
       <c r="D14">
-        <v>1.026367815617221</v>
+        <v>0.9978252401484581</v>
       </c>
       <c r="E14">
-        <v>1.044611248911859</v>
+        <v>0.9917865275450752</v>
       </c>
       <c r="F14">
-        <v>1.048976346519685</v>
+        <v>0.9961808952728785</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030741039095636</v>
+        <v>1.035679550194355</v>
       </c>
       <c r="J14">
-        <v>1.026813311544146</v>
+        <v>1.003142847748243</v>
       </c>
       <c r="K14">
-        <v>1.029974759419686</v>
+        <v>1.012805308996869</v>
       </c>
       <c r="L14">
-        <v>1.048150405653485</v>
+        <v>1.006882192832025</v>
       </c>
       <c r="M14">
-        <v>1.052499670062608</v>
+        <v>1.01119225944379</v>
       </c>
       <c r="N14">
-        <v>1.028271504223672</v>
+        <v>1.004567425654138</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02023009127323</v>
+        <v>0.9730902654899639</v>
       </c>
       <c r="D15">
-        <v>1.026441992185632</v>
+        <v>0.9982142677860431</v>
       </c>
       <c r="E15">
-        <v>1.044727496023454</v>
+        <v>0.9923565979276051</v>
       </c>
       <c r="F15">
-        <v>1.049095558751167</v>
+        <v>0.9967715133143661</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030758721386032</v>
+        <v>1.035814854942135</v>
       </c>
       <c r="J15">
-        <v>1.026876031389186</v>
+        <v>1.003468850166271</v>
       </c>
       <c r="K15">
-        <v>1.030028947252227</v>
+        <v>1.013097823776375</v>
       </c>
       <c r="L15">
-        <v>1.048246916662131</v>
+        <v>1.00735137335687</v>
       </c>
       <c r="M15">
-        <v>1.052599231346685</v>
+        <v>1.011682304269667</v>
       </c>
       <c r="N15">
-        <v>1.028334313138085</v>
+        <v>1.004893891032993</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02081808294591</v>
+        <v>0.9762378407053853</v>
       </c>
       <c r="D16">
-        <v>1.026873744614369</v>
+        <v>1.000458125952285</v>
       </c>
       <c r="E16">
-        <v>1.045404477863449</v>
+        <v>0.9956453235157599</v>
       </c>
       <c r="F16">
-        <v>1.049789737316382</v>
+        <v>1.000178088258066</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030861152495288</v>
+        <v>1.036591135336157</v>
       </c>
       <c r="J16">
-        <v>1.027240964620184</v>
+        <v>1.005347099797861</v>
       </c>
       <c r="K16">
-        <v>1.030344102041946</v>
+        <v>1.014782460278488</v>
       </c>
       <c r="L16">
-        <v>1.048808805435852</v>
+        <v>1.010056740245603</v>
       </c>
       <c r="M16">
-        <v>1.053178814691607</v>
+        <v>1.014507459718188</v>
       </c>
       <c r="N16">
-        <v>1.02869976461613</v>
+        <v>1.006774807994498</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021186998218952</v>
+        <v>0.9781856602051555</v>
       </c>
       <c r="D17">
-        <v>1.027144581806666</v>
+        <v>1.001848035553615</v>
       </c>
       <c r="E17">
-        <v>1.045829459416401</v>
+        <v>0.9976831215117977</v>
       </c>
       <c r="F17">
-        <v>1.050225451678725</v>
+        <v>1.002288303221345</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030924975175735</v>
+        <v>1.037068336362237</v>
       </c>
       <c r="J17">
-        <v>1.027469768426606</v>
+        <v>1.006508734410378</v>
       </c>
       <c r="K17">
-        <v>1.030541576725592</v>
+        <v>1.015823739416396</v>
       </c>
       <c r="L17">
-        <v>1.049161398015096</v>
+        <v>1.011731896318375</v>
       </c>
       <c r="M17">
-        <v>1.05354245427255</v>
+        <v>1.016256328803331</v>
       </c>
       <c r="N17">
-        <v>1.028928893350201</v>
+        <v>1.007938092261407</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021402210234192</v>
+        <v>0.9793124845486438</v>
       </c>
       <c r="D18">
-        <v>1.02730255990619</v>
+        <v>1.002652559411696</v>
       </c>
       <c r="E18">
-        <v>1.046077462375623</v>
+        <v>0.9988629459448316</v>
       </c>
       <c r="F18">
-        <v>1.05047969534495</v>
+        <v>1.003509836386691</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03096204690279</v>
+        <v>1.037343235389236</v>
       </c>
       <c r="J18">
-        <v>1.027603186273249</v>
+        <v>1.007180484960114</v>
       </c>
       <c r="K18">
-        <v>1.030656683151734</v>
+        <v>1.016425662771494</v>
       </c>
       <c r="L18">
-        <v>1.049367107747494</v>
+        <v>1.012701335329595</v>
       </c>
       <c r="M18">
-        <v>1.053754588648554</v>
+        <v>1.017268259265641</v>
       </c>
       <c r="N18">
-        <v>1.02906250066549</v>
+        <v>1.008610796773974</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021475597039349</v>
+        <v>0.9796951489093141</v>
       </c>
       <c r="D19">
-        <v>1.027356426888859</v>
+        <v>1.002925846297434</v>
       </c>
       <c r="E19">
-        <v>1.046162045054406</v>
+        <v>0.9992637695716613</v>
       </c>
       <c r="F19">
-        <v>1.050566402624933</v>
+        <v>1.003924792687312</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030974661107656</v>
+        <v>1.037436390673701</v>
       </c>
       <c r="J19">
-        <v>1.027648671585095</v>
+        <v>1.007408562642474</v>
       </c>
       <c r="K19">
-        <v>1.030695918348463</v>
+        <v>1.016629992828416</v>
       </c>
       <c r="L19">
-        <v>1.049437257661906</v>
+        <v>1.013030611686524</v>
       </c>
       <c r="M19">
-        <v>1.053826925994752</v>
+        <v>1.017611939545035</v>
       </c>
       <c r="N19">
-        <v>1.029108050571697</v>
+        <v>1.008839198352804</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021147413997063</v>
+        <v>0.9779776460974248</v>
       </c>
       <c r="D20">
-        <v>1.027115523184638</v>
+        <v>1.001699554809242</v>
       </c>
       <c r="E20">
-        <v>1.04578385066866</v>
+        <v>0.9974654000436642</v>
       </c>
       <c r="F20">
-        <v>1.050178693424949</v>
+        <v>1.002062867275096</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030918143631855</v>
+        <v>1.03701749490879</v>
       </c>
       <c r="J20">
-        <v>1.027445224029091</v>
+        <v>1.006384706403473</v>
       </c>
       <c r="K20">
-        <v>1.030520397542258</v>
+        <v>1.015712585281501</v>
       </c>
       <c r="L20">
-        <v>1.04912356315578</v>
+        <v>1.011552964232106</v>
       </c>
       <c r="M20">
-        <v>1.053503436127367</v>
+        <v>1.016069540375466</v>
       </c>
       <c r="N20">
-        <v>1.028904314096827</v>
+        <v>1.007813888120505</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020080812668439</v>
+        <v>0.9722826037898932</v>
       </c>
       <c r="D21">
-        <v>1.026332363849865</v>
+        <v>0.9976389409712054</v>
       </c>
       <c r="E21">
-        <v>1.044555696274965</v>
+        <v>0.9915135396541327</v>
       </c>
       <c r="F21">
-        <v>1.048919375644629</v>
+        <v>0.995898055512536</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030732579405237</v>
+        <v>1.035614681393947</v>
       </c>
       <c r="J21">
-        <v>1.026783333002467</v>
+        <v>1.002986692783735</v>
       </c>
       <c r="K21">
-        <v>1.029948856584582</v>
+        <v>1.01266518282887</v>
       </c>
       <c r="L21">
-        <v>1.048104281812511</v>
+        <v>1.006657494270206</v>
       </c>
       <c r="M21">
-        <v>1.052452087323568</v>
+        <v>1.010957559449568</v>
       </c>
       <c r="N21">
-        <v>1.028241483109025</v>
+        <v>1.004411048931669</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019410471616924</v>
+        <v>0.9686121307567928</v>
       </c>
       <c r="D22">
-        <v>1.025839998453262</v>
+        <v>0.9950266847706926</v>
       </c>
       <c r="E22">
-        <v>1.04378457491221</v>
+        <v>0.9876862836336321</v>
       </c>
       <c r="F22">
-        <v>1.048128484653765</v>
+        <v>0.9919318579598815</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030614514405505</v>
+        <v>1.034700206119371</v>
       </c>
       <c r="J22">
-        <v>1.026366823889295</v>
+        <v>1.000794573659276</v>
       </c>
       <c r="K22">
-        <v>1.029588815627544</v>
+        <v>1.010697312034659</v>
       </c>
       <c r="L22">
-        <v>1.047463856930914</v>
+        <v>1.003505689083289</v>
       </c>
       <c r="M22">
-        <v>1.051791330745493</v>
+        <v>1.007664858789787</v>
       </c>
       <c r="N22">
-        <v>1.027824382505138</v>
+        <v>1.002215816746614</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019765805994713</v>
+        <v>0.9705667286041949</v>
       </c>
       <c r="D23">
-        <v>1.026101006689712</v>
+        <v>0.996417276024092</v>
       </c>
       <c r="E23">
-        <v>1.04419325963366</v>
+        <v>0.989723549064594</v>
       </c>
       <c r="F23">
-        <v>1.048547666297523</v>
+        <v>0.9940432712810788</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030677234845871</v>
+        <v>1.035188137660617</v>
       </c>
       <c r="J23">
-        <v>1.026587656404216</v>
+        <v>1.001962099946893</v>
       </c>
       <c r="K23">
-        <v>1.029779745349684</v>
+        <v>1.011745577273601</v>
       </c>
       <c r="L23">
-        <v>1.047803316719697</v>
+        <v>1.005183767120785</v>
       </c>
       <c r="M23">
-        <v>1.052141584802844</v>
+        <v>1.009418091392251</v>
       </c>
       <c r="N23">
-        <v>1.02804552862756</v>
+        <v>1.003385001055477</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021165300310393</v>
+        <v>0.9780716674143496</v>
       </c>
       <c r="D24">
-        <v>1.027128653514869</v>
+        <v>1.001766665949855</v>
       </c>
       <c r="E24">
-        <v>1.045804458932601</v>
+        <v>0.9975638061011973</v>
       </c>
       <c r="F24">
-        <v>1.050199821161618</v>
+        <v>1.002164760810908</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030921230991302</v>
+        <v>1.037040478601806</v>
       </c>
       <c r="J24">
-        <v>1.027456314708025</v>
+        <v>1.006440767245116</v>
       </c>
       <c r="K24">
-        <v>1.030529967742185</v>
+        <v>1.015762827822976</v>
       </c>
       <c r="L24">
-        <v>1.049140658950349</v>
+        <v>1.011633839533018</v>
       </c>
       <c r="M24">
-        <v>1.053521066656242</v>
+        <v>1.016153967174437</v>
       </c>
       <c r="N24">
-        <v>1.028915420525797</v>
+        <v>1.007870028574974</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022790509669308</v>
+        <v>0.9864181924591171</v>
       </c>
       <c r="D25">
-        <v>1.028321307609226</v>
+        <v>1.0077331075238</v>
       </c>
       <c r="E25">
-        <v>1.047678810277403</v>
+        <v>1.006319728378895</v>
       </c>
       <c r="F25">
-        <v>1.05212093176579</v>
+        <v>1.011226325262221</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031198294646969</v>
+        <v>1.039055516347704</v>
       </c>
       <c r="J25">
-        <v>1.028462790844085</v>
+        <v>1.011411446121089</v>
       </c>
       <c r="K25">
-        <v>1.031397527286407</v>
+        <v>1.020212551443411</v>
       </c>
       <c r="L25">
-        <v>1.050694469898671</v>
+        <v>1.018820724513035</v>
       </c>
       <c r="M25">
-        <v>1.055123037166346</v>
+        <v>1.023652831276262</v>
       </c>
       <c r="N25">
-        <v>1.029923325973415</v>
+        <v>1.012847766385096</v>
       </c>
     </row>
   </sheetData>
